--- a/data/turning_counts/int103.xlsx
+++ b/data/turning_counts/int103.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenatchley/Documents/662_dogbones_2023/data/turning_counts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Hill\Documents\GitHub\662_dogbones_2023\data\turning_counts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C292A7E-5EC8-714B-8DCA-13BCCA1C2081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC70596B-F255-4E03-9C24-5698D7F742BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="17100" windowHeight="10120" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Bank3" sheetId="4" r:id="rId4"/>
     <sheet name="Bank4" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" iterateCount="1"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -666,14 +666,14 @@
   <sheetViews>
     <sheetView showRowColHeaders="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.25" style="2" customWidth="1"/>
     <col min="3" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -713,12 +713,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -726,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -734,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -761,14 +761,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:A11"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -784,7 +784,7 @@
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
@@ -849,7 +849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>36</v>
       </c>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>37</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>38</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
@@ -1467,6 +1467,98 @@
       </c>
       <c r="U11" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="9">
+        <f>SUM(D3:D6)</f>
+        <v>460</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" ref="E13:N13" si="0">SUM(E3:E6)</f>
+        <v>89</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="0"/>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="9">
+        <f>SUM(D7:D10)</f>
+        <v>822</v>
+      </c>
+      <c r="E14" s="9">
+        <f>SUM(E7:E10)</f>
+        <v>210</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F7:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G7:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <f>SUM(H7:H10)</f>
+        <v>147</v>
+      </c>
+      <c r="I14" s="9">
+        <f>SUM(I7:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <f>SUM(J7:J10)</f>
+        <v>83</v>
+      </c>
+      <c r="K14" s="9">
+        <f>SUM(K7:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>SUM(L7:L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <f>SUM(M7:M10)</f>
+        <v>103</v>
+      </c>
+      <c r="N14" s="9">
+        <f>SUM(N7:N10)</f>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -1482,13 +1574,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="I2" sqref="I2"/>
       <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="8" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="9" hidden="1" customWidth="1"/>
@@ -1502,7 +1594,7 @@
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1691,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1753,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -1815,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -1877,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>39</v>
       </c>
@@ -1939,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
@@ -2001,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
@@ -2063,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -2125,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
@@ -2249,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
@@ -2311,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
@@ -2373,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2452,14 +2544,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
@@ -2533,14 +2625,14 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="12" customWidth="1"/>
     <col min="2" max="21" width="6.75" style="9" customWidth="1"/>
     <col min="22" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
